--- a/data/trans_orig/P07B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>14646</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8923</v>
+        <v>9073</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23001</v>
+        <v>23059</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02531563280106419</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01542405217970731</v>
+        <v>0.0156831426345054</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03975841747843555</v>
+        <v>0.03985848156413416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -762,19 +762,19 @@
         <v>26901</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20060</v>
+        <v>19733</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35923</v>
+        <v>35434</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03272432976530753</v>
+        <v>0.03272432976530752</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0244026070977412</v>
+        <v>0.02400551724026377</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04370036096192967</v>
+        <v>0.04310539983485052</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -783,19 +783,19 @@
         <v>41546</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32633</v>
+        <v>31744</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52613</v>
+        <v>52129</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02966403471303854</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02330012533064518</v>
+        <v>0.02266501107834895</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03756555275100146</v>
+        <v>0.0372200128514945</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>52934</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42399</v>
+        <v>40361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>66915</v>
+        <v>68013</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09149824071253652</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07328759833326608</v>
+        <v>0.06976508087846195</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1156638029112136</v>
+        <v>0.11756219702562</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>225</v>
@@ -833,19 +833,19 @@
         <v>126599</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>112291</v>
+        <v>110808</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>143236</v>
+        <v>143145</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1540063284201974</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1366004143861501</v>
+        <v>0.1347971855610881</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1742453912139221</v>
+        <v>0.1741339703148943</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>295</v>
@@ -854,19 +854,19 @@
         <v>179533</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>158340</v>
+        <v>160537</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>200400</v>
+        <v>201526</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1281862425856991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1130540066760399</v>
+        <v>0.1146231091471434</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1430849245997406</v>
+        <v>0.143888864650601</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>283445</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>259668</v>
+        <v>259158</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>306271</v>
+        <v>306824</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4899408106644995</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4488422821963413</v>
+        <v>0.44796028232168</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5293960883715834</v>
+        <v>0.5303515914302583</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>805</v>
@@ -904,19 +904,19 @@
         <v>462567</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>439470</v>
+        <v>441313</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>485499</v>
+        <v>485168</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5627077530461094</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.534610437400769</v>
+        <v>0.5368518968651937</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5906037281721234</v>
+        <v>0.5902014042429505</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1160</v>
@@ -925,19 +925,19 @@
         <v>746012</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>714827</v>
+        <v>712565</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>777821</v>
+        <v>778444</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5326500634396988</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5103840511097874</v>
+        <v>0.5087690143738681</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5553615676551772</v>
+        <v>0.5558064848754624</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>157613</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>136178</v>
+        <v>137094</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>179067</v>
+        <v>180760</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2724372532146619</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2353872337772255</v>
+        <v>0.2369706875177926</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3095209016156807</v>
+        <v>0.3124480120454513</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>286</v>
@@ -975,19 +975,19 @@
         <v>161201</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>144312</v>
+        <v>144836</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>180816</v>
+        <v>178308</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1960986461551375</v>
+        <v>0.1960986461551376</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1755536789423973</v>
+        <v>0.1761918176926469</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2199609585006838</v>
+        <v>0.2169091065041192</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>471</v>
@@ -996,19 +996,19 @@
         <v>318813</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>292290</v>
+        <v>291427</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>345605</v>
+        <v>346067</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2276316758645298</v>
+        <v>0.2276316758645297</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2086940423219313</v>
+        <v>0.2080775473422803</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2467608674974763</v>
+        <v>0.2470906696571557</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>69891</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54997</v>
+        <v>54123</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>91360</v>
+        <v>88888</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.120808062607238</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09506366912693029</v>
+        <v>0.09355286949980236</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1579179327949408</v>
+        <v>0.1536451338540782</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -1046,19 +1046,19 @@
         <v>44771</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34033</v>
+        <v>34270</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>57864</v>
+        <v>58718</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05446294261324801</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04140027326910318</v>
+        <v>0.04168916640607987</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07039056667928045</v>
+        <v>0.07142980754283069</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>124</v>
@@ -1067,19 +1067,19 @@
         <v>114662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>92899</v>
+        <v>94510</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>137152</v>
+        <v>138759</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08186798339703397</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06632991890306297</v>
+        <v>0.06748002149799927</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09792618669289263</v>
+        <v>0.09907335313060292</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>15502</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9394</v>
+        <v>8899</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25123</v>
+        <v>25093</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.006949667405302005</v>
+        <v>0.006949667405302006</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004211559813017959</v>
+        <v>0.003989498229231245</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01126286782559434</v>
+        <v>0.01124951147774117</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1192,19 +1192,19 @@
         <v>16121</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10058</v>
+        <v>9963</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24536</v>
+        <v>25556</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.007424164900714552</v>
+        <v>0.007424164900714551</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004632219700579871</v>
+        <v>0.004588072068995903</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01129989335046812</v>
+        <v>0.01176925304989269</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -1213,19 +1213,19 @@
         <v>31622</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22873</v>
+        <v>22299</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42751</v>
+        <v>43489</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.007183726888476153</v>
+        <v>0.007183726888476154</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005196027578781872</v>
+        <v>0.005065756450075621</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009711907974046247</v>
+        <v>0.009879400283908442</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>94017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74574</v>
+        <v>75094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>116444</v>
+        <v>117872</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04214928547416626</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03343259936368129</v>
+        <v>0.03366608097234069</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05220369069018304</v>
+        <v>0.05284399371297626</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>212</v>
@@ -1263,19 +1263,19 @@
         <v>149461</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>129263</v>
+        <v>128825</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>174737</v>
+        <v>172183</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.06883167158858557</v>
+        <v>0.06883167158858555</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05953013161165045</v>
+        <v>0.05932811408331554</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08047217828590629</v>
+        <v>0.0792959363280689</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>302</v>
@@ -1284,19 +1284,19 @@
         <v>243477</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>213810</v>
+        <v>216256</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>274244</v>
+        <v>274249</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.05531113683096674</v>
+        <v>0.05531113683096675</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04857158589155169</v>
+        <v>0.04912725465329766</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06230038307066646</v>
+        <v>0.06230150899042191</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>906503</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>849453</v>
+        <v>858695</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>960334</v>
+        <v>958595</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4064002647029177</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.380823986957019</v>
+        <v>0.3849673855152251</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4305337599716935</v>
+        <v>0.429754090560155</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1320</v>
@@ -1334,19 +1334,19 @@
         <v>922674</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>876356</v>
+        <v>880169</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>965525</v>
+        <v>967841</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4249228276286494</v>
+        <v>0.4249228276286493</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4035918179963218</v>
+        <v>0.4053477233926449</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4446571168154156</v>
+        <v>0.4457239518030288</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2221</v>
@@ -1355,19 +1355,19 @@
         <v>1829177</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1760884</v>
+        <v>1760101</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1900210</v>
+        <v>1897880</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.415537049506572</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4000228561677412</v>
+        <v>0.3998448689330458</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4316737320521352</v>
+        <v>0.4311444135193058</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>831256</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>776331</v>
+        <v>779215</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>884367</v>
+        <v>878810</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3726658746495731</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3480422372272399</v>
+        <v>0.349334990390697</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3964764404542401</v>
+        <v>0.3939851879976906</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1053</v>
@@ -1405,19 +1405,19 @@
         <v>793389</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>750480</v>
+        <v>749544</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>833970</v>
+        <v>834180</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3653828173170682</v>
+        <v>0.3653828173170681</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3456217302307467</v>
+        <v>0.3451904899146392</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3840716343870553</v>
+        <v>0.3841682677889457</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1771</v>
@@ -1426,19 +1426,19 @@
         <v>1624646</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1558404</v>
+        <v>1554540</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1692754</v>
+        <v>1696464</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3690732979728686</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3540251060539301</v>
+        <v>0.353147295970119</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3845455026987254</v>
+        <v>0.3853883118646766</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>383289</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>334063</v>
+        <v>336740</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>430022</v>
+        <v>431606</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1718349077680411</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1497658704734177</v>
+        <v>0.1509663410321554</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1927861028070859</v>
+        <v>0.1934960115387742</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>314</v>
@@ -1476,19 +1476,19 @@
         <v>289747</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>258092</v>
+        <v>257210</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>320011</v>
+        <v>324824</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1334385185649824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1188603783497591</v>
+        <v>0.1184541952960713</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1473759896326849</v>
+        <v>0.1495925259562146</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>581</v>
@@ -1497,19 +1497,19 @@
         <v>673037</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>618886</v>
+        <v>616227</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>727921</v>
+        <v>725751</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1528947888011165</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1405933793439075</v>
+        <v>0.1399891541066335</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1653629908839968</v>
+        <v>0.1648699927317669</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>5158</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1122</v>
+        <v>1750</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14379</v>
+        <v>15051</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007248204400024627</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001576150221370528</v>
+        <v>0.002459223013091597</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02020722313973617</v>
+        <v>0.02115098768477495</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1622,19 +1622,19 @@
         <v>7677</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3038</v>
+        <v>3347</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17114</v>
+        <v>16949</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01044615046521588</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00413469830710113</v>
+        <v>0.004554179256826921</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02328868801113386</v>
+        <v>0.02306409664833982</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>12834</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6580</v>
+        <v>6624</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25532</v>
+        <v>22985</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008872923302080055</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004548902363577744</v>
+        <v>0.004579549731819209</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01765131572444882</v>
+        <v>0.0158902721010764</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>37769</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26383</v>
+        <v>26204</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54827</v>
+        <v>54051</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0530776142359363</v>
+        <v>0.05307761423593629</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0370759832797618</v>
+        <v>0.03682507718340029</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07704820917971128</v>
+        <v>0.07595877702011845</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -1693,19 +1693,19 @@
         <v>32646</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23823</v>
+        <v>23005</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44274</v>
+        <v>43193</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04442324804029556</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03241793644962848</v>
+        <v>0.03130443109524739</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06024712052050227</v>
+        <v>0.05877635123259918</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>79</v>
@@ -1714,19 +1714,19 @@
         <v>70415</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53848</v>
+        <v>53926</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>88379</v>
+        <v>90122</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04868075698546041</v>
+        <v>0.0486807569854604</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03722710032339981</v>
+        <v>0.03728152419444949</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06110037723656851</v>
+        <v>0.06230501927325672</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>292843</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>264908</v>
+        <v>266886</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>322512</v>
+        <v>321211</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4115351199242374</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3722773390262381</v>
+        <v>0.3750577882501418</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.453228783677054</v>
+        <v>0.4514011035935084</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>423</v>
@@ -1764,19 +1764,19 @@
         <v>295951</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>273978</v>
+        <v>274169</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>322039</v>
+        <v>321981</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4027218726979463</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3728208965265892</v>
+        <v>0.3730817135919321</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4382215842662261</v>
+        <v>0.438142726501826</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>731</v>
@@ -1785,19 +1785,19 @@
         <v>588794</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>554513</v>
+        <v>556396</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>625306</v>
+        <v>626807</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4070575430467218</v>
+        <v>0.4070575430467217</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3833573801195702</v>
+        <v>0.384659635293679</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4323000595732768</v>
+        <v>0.4333376484999917</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>249189</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>221303</v>
+        <v>222460</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>275914</v>
+        <v>277439</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3501877422005791</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3109989795673932</v>
+        <v>0.3126253189764084</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3877446141137783</v>
+        <v>0.3898870423904809</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>371</v>
@@ -1835,19 +1835,19 @@
         <v>271001</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>249046</v>
+        <v>245214</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>296675</v>
+        <v>293361</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3687704760356275</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3388951164921551</v>
+        <v>0.3336799014132742</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4037067078131562</v>
+        <v>0.3991973939470007</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>607</v>
@@ -1856,19 +1856,19 @@
         <v>520190</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>484698</v>
+        <v>486378</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>555673</v>
+        <v>554628</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3596287140925997</v>
+        <v>0.3596287140925996</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3350916851544363</v>
+        <v>0.3362531587566346</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3841592940320688</v>
+        <v>0.3834372796045343</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>126628</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>103771</v>
+        <v>103199</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>153212</v>
+        <v>153158</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1779513192392225</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.145830197741892</v>
+        <v>0.145027022618498</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2153109025954836</v>
+        <v>0.215234303076878</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>158</v>
@@ -1906,19 +1906,19 @@
         <v>127603</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>108914</v>
+        <v>109774</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>147207</v>
+        <v>148652</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1736382527609146</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1482066933856736</v>
+        <v>0.1493770154505555</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2003145867951399</v>
+        <v>0.2022808343446014</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>256</v>
@@ -1927,19 +1927,19 @@
         <v>254231</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>224181</v>
+        <v>226475</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>287333</v>
+        <v>288287</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1757600625731382</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1549854108833928</v>
+        <v>0.1565713886237197</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1986453466524148</v>
+        <v>0.1993045251548382</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>35305</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25149</v>
+        <v>25966</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50124</v>
+        <v>49061</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01002795844245594</v>
+        <v>0.01002795844245595</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007143116547834525</v>
+        <v>0.007375155709279431</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01423689644392251</v>
+        <v>0.01393503212985473</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>79</v>
@@ -2052,19 +2052,19 @@
         <v>50698</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39298</v>
+        <v>39914</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63464</v>
+        <v>64736</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01359814157256636</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01054031718034634</v>
+        <v>0.01070553418533227</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01702213537099737</v>
+        <v>0.01736345765836663</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>118</v>
@@ -2073,19 +2073,19 @@
         <v>86003</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72070</v>
+        <v>70226</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104990</v>
+        <v>106213</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01186417833083788</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009942124530369386</v>
+        <v>0.009687635992935234</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01448337901362626</v>
+        <v>0.01465214988627831</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>184721</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>155907</v>
+        <v>160375</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>213168</v>
+        <v>214246</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05246724977422983</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04428303810396078</v>
+        <v>0.04555231718297673</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06054746171152636</v>
+        <v>0.06085355612178249</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>481</v>
@@ -2123,19 +2123,19 @@
         <v>308705</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>278894</v>
+        <v>280462</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>337863</v>
+        <v>340832</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08280036924017999</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07480452529062341</v>
+        <v>0.07522498513005661</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09062099740316788</v>
+        <v>0.09141741671966058</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>676</v>
@@ -2144,19 +2144,19 @@
         <v>493426</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>454856</v>
+        <v>455738</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>532194</v>
+        <v>535778</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.06806820782321385</v>
+        <v>0.06806820782321386</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06274750740141852</v>
+        <v>0.06286917559192416</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07341631811500593</v>
+        <v>0.07391068988784298</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>1482791</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1418924</v>
+        <v>1420918</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1547101</v>
+        <v>1543756</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4211657413831251</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4030251247155098</v>
+        <v>0.4035916032144513</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4394319331554916</v>
+        <v>0.4384819358141079</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2548</v>
@@ -2194,19 +2194,19 @@
         <v>1681192</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1627358</v>
+        <v>1625151</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1731853</v>
+        <v>1733040</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.450926437708101</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.436487236384115</v>
+        <v>0.4358952501955525</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4645146040834171</v>
+        <v>0.4648328744225976</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4112</v>
@@ -2215,19 +2215,19 @@
         <v>3163983</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3078516</v>
+        <v>3083912</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3247308</v>
+        <v>3251903</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4364722902329948</v>
+        <v>0.4364722902329949</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4246820926004943</v>
+        <v>0.4254265011430555</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4479669177750337</v>
+        <v>0.448600879295484</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>1238058</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1178202</v>
+        <v>1174336</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1302972</v>
+        <v>1301649</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3516528047681212</v>
+        <v>0.3516528047681213</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3346514284336318</v>
+        <v>0.3335535766751405</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3700908265085735</v>
+        <v>0.3697149804242003</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1710</v>
@@ -2265,19 +2265,19 @@
         <v>1225591</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1178420</v>
+        <v>1173187</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1281646</v>
+        <v>1281648</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3287258372116137</v>
+        <v>0.3287258372116138</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.316073659729263</v>
+        <v>0.3146702084457518</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3437609543941583</v>
+        <v>0.3437612956317617</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2849</v>
@@ -2286,19 +2286,19 @@
         <v>2463649</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2381879</v>
+        <v>2386390</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2546009</v>
+        <v>2556231</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3398609856167478</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3285807776572298</v>
+        <v>0.3292031062070518</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3512225578478526</v>
+        <v>0.3526326488156064</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>579808</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>523323</v>
+        <v>527060</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>640638</v>
+        <v>638540</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1646862456320679</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1486425518230901</v>
+        <v>0.1497040474488205</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1819640218168506</v>
+        <v>0.1813682201385552</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>534</v>
@@ -2336,19 +2336,19 @@
         <v>462121</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>424731</v>
+        <v>424533</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>505630</v>
+        <v>509989</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1239492142675388</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1139205635935024</v>
+        <v>0.1138675257675596</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1356191365640926</v>
+        <v>0.1367882389822314</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>961</v>
@@ -2357,19 +2357,19 @@
         <v>1041929</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>979402</v>
+        <v>973675</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1121958</v>
+        <v>1114160</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1437343379962056</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1351087360987059</v>
+        <v>0.134318759192928</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1547743510684947</v>
+        <v>0.1536986790920732</v>
       </c>
     </row>
     <row r="27">
